--- a/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartMachineConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -43,7 +43,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>172.30.21.249</t>
+  </si>
+  <si>
+    <t>106.15.224.174</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1104,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>10000</v>
